--- a/2021/Data/Tank Mix Trial Map 2021.xlsx
+++ b/2021/Data/Tank Mix Trial Map 2021.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidwheeler/Desktop/RESEARCH/Projects/TankMix/2021/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidlinnardwheeler/Desktop/Desktop - David’s MacBook Pro/Research/TankMix/TankMixTrials/2021/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3A86E5-B2DA-0441-BCC3-5F19D5F41A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580CD309-6B34-714A-9B86-DDB3C9CBEC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="20840" activeTab="2" xr2:uid="{F3CFAEF1-08B7-4C4B-A5A9-372546D6B2DD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="2" xr2:uid="{F3CFAEF1-08B7-4C4B-A5A9-372546D6B2DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Trial Map 1" sheetId="1" r:id="rId1"/>
     <sheet name="Trial Map 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Senescence" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="100">
   <si>
     <t>Jun-1-2021 (Potato-PC-TankMix-2021) ARM 2021.0 Trial Map Page 1 of 1</t>
   </si>
@@ -396,10 +396,10 @@
     <t>Control</t>
   </si>
   <si>
-    <t>Senescence</t>
-  </si>
-  <si>
     <t>Map</t>
+  </si>
+  <si>
+    <t>Senescence_date</t>
   </si>
 </sst>
 </file>
@@ -1666,7 +1666,7 @@
   <dimension ref="A1:W65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q65"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1688,10 +1688,14 @@
         <v>14</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+        <v>99</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>99</v>
+      </c>
       <c r="H1" s="33"/>
       <c r="I1" s="33"/>
       <c r="J1" s="33"/>
@@ -1733,7 +1737,7 @@
       <c r="M2" s="21"/>
       <c r="N2" s="24"/>
       <c r="O2" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P2" s="24"/>
       <c r="Q2" s="24"/>

--- a/2021/Data/Tank Mix Trial Map 2021.xlsx
+++ b/2021/Data/Tank Mix Trial Map 2021.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidlinnardwheeler/Desktop/Desktop - David’s MacBook Pro/Research/TankMix/TankMixTrials/2021/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudha.gcupadhaya\OneDrive - Washington State University (email.wsu.edu)\Desktop\TankMixTrials\2021\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580CD309-6B34-714A-9B86-DDB3C9CBEC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{580CD309-6B34-714A-9B86-DDB3C9CBEC4A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FDE9618-5583-4569-8C11-558841EA962F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="2" xr2:uid="{F3CFAEF1-08B7-4C4B-A5A9-372546D6B2DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{F3CFAEF1-08B7-4C4B-A5A9-372546D6B2DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Trial Map 1" sheetId="1" r:id="rId1"/>
     <sheet name="Trial Map 2" sheetId="2" r:id="rId2"/>
     <sheet name="Senescence" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="110">
   <si>
     <t>Jun-1-2021 (Potato-PC-TankMix-2021) ARM 2021.0 Trial Map Page 1 of 1</t>
   </si>
@@ -400,13 +401,43 @@
   </si>
   <si>
     <t>Senescence_date</t>
+  </si>
+  <si>
+    <t>Senescence_06-15-21</t>
+  </si>
+  <si>
+    <t>Senescence_06-24-21</t>
+  </si>
+  <si>
+    <t>Senescence_07-09-21</t>
+  </si>
+  <si>
+    <t>Senescence_07-20-21</t>
+  </si>
+  <si>
+    <t>Senescence_07-27-21</t>
+  </si>
+  <si>
+    <t>Senescence_08-10-21</t>
+  </si>
+  <si>
+    <t>Senescence_08-20-21</t>
+  </si>
+  <si>
+    <t>15*</t>
+  </si>
+  <si>
+    <t>0 PBY</t>
+  </si>
+  <si>
+    <t>* Downy mildew</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,6 +463,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -701,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -775,6 +814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -891,6 +931,61 @@
         <a:xfrm>
           <a:off x="13296900" y="584200"/>
           <a:ext cx="2914650" cy="6350000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="RPTIMG_27_2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DD1FB9E-E5CF-4EAF-A776-6969D8063BC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13706475" y="581025"/>
+          <a:ext cx="2571750" cy="6343650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1205,26 +1300,26 @@
       <selection activeCell="C12" sqref="C12:C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1241,7 +1336,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1253,7 +1348,7 @@
       </c>
       <c r="E5" s="40"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1261,17 +1356,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1282,7 +1377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1290,7 +1385,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1298,7 +1393,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1306,7 +1401,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1314,7 +1409,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1322,7 +1417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1330,7 +1425,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7</v>
       </c>
@@ -1338,7 +1433,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -1346,7 +1441,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
@@ -1354,7 +1449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
@@ -1362,7 +1457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11</v>
       </c>
@@ -1370,7 +1465,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12</v>
       </c>
@@ -1378,7 +1473,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>13</v>
       </c>
@@ -1386,7 +1481,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>14</v>
       </c>
@@ -1394,7 +1489,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>15</v>
       </c>
@@ -1402,7 +1497,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>16</v>
       </c>
@@ -1426,12 +1521,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="5.5" customWidth="1"/>
+    <col min="1" max="5" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -1448,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
@@ -1465,7 +1560,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>40</v>
       </c>
@@ -1482,7 +1577,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>45</v>
       </c>
@@ -1499,7 +1594,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>50</v>
       </c>
@@ -1516,7 +1611,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>55</v>
       </c>
@@ -1533,7 +1628,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>60</v>
       </c>
@@ -1550,7 +1645,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>65</v>
       </c>
@@ -1567,7 +1662,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>70</v>
       </c>
@@ -1584,7 +1679,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>75</v>
       </c>
@@ -1601,7 +1696,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>80</v>
       </c>
@@ -1618,7 +1713,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>85</v>
       </c>
@@ -1635,7 +1730,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>90</v>
       </c>
@@ -1665,16 +1760,16 @@
   </sheetPr>
   <dimension ref="A1:W65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>95</v>
       </c>
@@ -1713,7 +1808,7 @@
       <c r="V1" s="24"/>
       <c r="W1" s="24"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -1748,7 +1843,7 @@
       <c r="V2" s="24"/>
       <c r="W2" s="24"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>2</v>
       </c>
@@ -1781,7 +1876,7 @@
       <c r="V3" s="24"/>
       <c r="W3" s="24"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -1814,7 +1909,7 @@
       <c r="V4" s="24"/>
       <c r="W4" s="24"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>4</v>
       </c>
@@ -1847,7 +1942,7 @@
       <c r="V5" s="24"/>
       <c r="W5" s="24"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>5</v>
       </c>
@@ -1880,7 +1975,7 @@
       <c r="V6" s="24"/>
       <c r="W6" s="24"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>6</v>
       </c>
@@ -1913,7 +2008,7 @@
       <c r="V7" s="24"/>
       <c r="W7" s="24"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>7</v>
       </c>
@@ -1946,7 +2041,7 @@
       <c r="V8" s="24"/>
       <c r="W8" s="24"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>8</v>
       </c>
@@ -1979,7 +2074,7 @@
       <c r="V9" s="24"/>
       <c r="W9" s="24"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>9</v>
       </c>
@@ -2012,7 +2107,7 @@
       <c r="V10" s="24"/>
       <c r="W10" s="24"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>10</v>
       </c>
@@ -2045,7 +2140,7 @@
       <c r="V11" s="24"/>
       <c r="W11" s="24"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>11</v>
       </c>
@@ -2078,7 +2173,7 @@
       <c r="V12" s="24"/>
       <c r="W12" s="24"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>12</v>
       </c>
@@ -2111,7 +2206,7 @@
       <c r="V13" s="24"/>
       <c r="W13" s="24"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>13</v>
       </c>
@@ -2144,7 +2239,7 @@
       <c r="V14" s="24"/>
       <c r="W14" s="24"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>14</v>
       </c>
@@ -2177,7 +2272,7 @@
       <c r="V15" s="24"/>
       <c r="W15" s="24"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>15</v>
       </c>
@@ -2210,7 +2305,7 @@
       <c r="V16" s="24"/>
       <c r="W16" s="24"/>
     </row>
-    <row r="17" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26">
         <v>16</v>
       </c>
@@ -2243,7 +2338,7 @@
       <c r="V17" s="24"/>
       <c r="W17" s="24"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>1</v>
       </c>
@@ -2266,7 +2361,7 @@
       <c r="L18" s="24"/>
       <c r="M18" s="25"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>2</v>
       </c>
@@ -2289,7 +2384,7 @@
       <c r="L19" s="24"/>
       <c r="M19" s="25"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>3</v>
       </c>
@@ -2312,7 +2407,7 @@
       <c r="L20" s="24"/>
       <c r="M20" s="25"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>4</v>
       </c>
@@ -2335,7 +2430,7 @@
       <c r="L21" s="24"/>
       <c r="M21" s="25"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>5</v>
       </c>
@@ -2358,7 +2453,7 @@
       <c r="L22" s="24"/>
       <c r="M22" s="25"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>6</v>
       </c>
@@ -2381,7 +2476,7 @@
       <c r="L23" s="24"/>
       <c r="M23" s="25"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>7</v>
       </c>
@@ -2404,7 +2499,7 @@
       <c r="L24" s="24"/>
       <c r="M24" s="25"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>8</v>
       </c>
@@ -2427,7 +2522,7 @@
       <c r="L25" s="24"/>
       <c r="M25" s="25"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>9</v>
       </c>
@@ -2450,7 +2545,7 @@
       <c r="L26" s="24"/>
       <c r="M26" s="25"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>10</v>
       </c>
@@ -2473,7 +2568,7 @@
       <c r="L27" s="24"/>
       <c r="M27" s="25"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>11</v>
       </c>
@@ -2496,7 +2591,7 @@
       <c r="L28" s="24"/>
       <c r="M28" s="25"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>12</v>
       </c>
@@ -2519,7 +2614,7 @@
       <c r="L29" s="24"/>
       <c r="M29" s="25"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>13</v>
       </c>
@@ -2542,7 +2637,7 @@
       <c r="L30" s="24"/>
       <c r="M30" s="25"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>14</v>
       </c>
@@ -2565,7 +2660,7 @@
       <c r="L31" s="24"/>
       <c r="M31" s="25"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
         <v>15</v>
       </c>
@@ -2588,7 +2683,7 @@
       <c r="L32" s="24"/>
       <c r="M32" s="25"/>
     </row>
-    <row r="33" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="26">
         <v>16</v>
       </c>
@@ -2611,7 +2706,7 @@
       <c r="L33" s="28"/>
       <c r="M33" s="29"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>1</v>
       </c>
@@ -2634,7 +2729,7 @@
       <c r="L34" s="20"/>
       <c r="M34" s="21"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>2</v>
       </c>
@@ -2657,7 +2752,7 @@
       <c r="L35" s="24"/>
       <c r="M35" s="25"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <v>3</v>
       </c>
@@ -2680,7 +2775,7 @@
       <c r="L36" s="24"/>
       <c r="M36" s="25"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>4</v>
       </c>
@@ -2703,7 +2798,7 @@
       <c r="L37" s="24"/>
       <c r="M37" s="25"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <v>5</v>
       </c>
@@ -2726,7 +2821,7 @@
       <c r="L38" s="24"/>
       <c r="M38" s="25"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>6</v>
       </c>
@@ -2749,7 +2844,7 @@
       <c r="L39" s="24"/>
       <c r="M39" s="25"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>7</v>
       </c>
@@ -2772,7 +2867,7 @@
       <c r="L40" s="24"/>
       <c r="M40" s="25"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <v>8</v>
       </c>
@@ -2795,7 +2890,7 @@
       <c r="L41" s="24"/>
       <c r="M41" s="25"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
         <v>9</v>
       </c>
@@ -2818,7 +2913,7 @@
       <c r="L42" s="24"/>
       <c r="M42" s="25"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>10</v>
       </c>
@@ -2841,7 +2936,7 @@
       <c r="L43" s="24"/>
       <c r="M43" s="25"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
         <v>11</v>
       </c>
@@ -2864,7 +2959,7 @@
       <c r="L44" s="24"/>
       <c r="M44" s="25"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
         <v>12</v>
       </c>
@@ -2887,7 +2982,7 @@
       <c r="L45" s="24"/>
       <c r="M45" s="25"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
         <v>13</v>
       </c>
@@ -2910,7 +3005,7 @@
       <c r="L46" s="24"/>
       <c r="M46" s="25"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="22">
         <v>14</v>
       </c>
@@ -2933,7 +3028,7 @@
       <c r="L47" s="24"/>
       <c r="M47" s="25"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
         <v>15</v>
       </c>
@@ -2956,7 +3051,7 @@
       <c r="L48" s="24"/>
       <c r="M48" s="25"/>
     </row>
-    <row r="49" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="26">
         <v>16</v>
       </c>
@@ -2979,7 +3074,7 @@
       <c r="L49" s="28"/>
       <c r="M49" s="29"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
         <v>1</v>
       </c>
@@ -3002,7 +3097,7 @@
       <c r="L50" s="20"/>
       <c r="M50" s="21"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
         <v>2</v>
       </c>
@@ -3025,7 +3120,7 @@
       <c r="L51" s="24"/>
       <c r="M51" s="25"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="22">
         <v>3</v>
       </c>
@@ -3048,7 +3143,7 @@
       <c r="L52" s="24"/>
       <c r="M52" s="25"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="22">
         <v>4</v>
       </c>
@@ -3071,7 +3166,7 @@
       <c r="L53" s="24"/>
       <c r="M53" s="25"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="22">
         <v>5</v>
       </c>
@@ -3094,7 +3189,7 @@
       <c r="L54" s="24"/>
       <c r="M54" s="25"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="22">
         <v>6</v>
       </c>
@@ -3117,7 +3212,7 @@
       <c r="L55" s="24"/>
       <c r="M55" s="25"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
         <v>7</v>
       </c>
@@ -3140,7 +3235,7 @@
       <c r="L56" s="24"/>
       <c r="M56" s="25"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="22">
         <v>8</v>
       </c>
@@ -3163,7 +3258,7 @@
       <c r="L57" s="24"/>
       <c r="M57" s="25"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="22">
         <v>9</v>
       </c>
@@ -3186,7 +3281,7 @@
       <c r="L58" s="24"/>
       <c r="M58" s="25"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="22">
         <v>10</v>
       </c>
@@ -3209,7 +3304,7 @@
       <c r="L59" s="24"/>
       <c r="M59" s="25"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="22">
         <v>11</v>
       </c>
@@ -3232,7 +3327,7 @@
       <c r="L60" s="24"/>
       <c r="M60" s="25"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="22">
         <v>12</v>
       </c>
@@ -3255,7 +3350,7 @@
       <c r="L61" s="24"/>
       <c r="M61" s="25"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="22">
         <v>13</v>
       </c>
@@ -3278,7 +3373,7 @@
       <c r="L62" s="24"/>
       <c r="M62" s="25"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="22">
         <v>14</v>
       </c>
@@ -3301,7 +3396,7 @@
       <c r="L63" s="24"/>
       <c r="M63" s="25"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="22">
         <v>15</v>
       </c>
@@ -3324,7 +3419,7 @@
       <c r="L64" s="24"/>
       <c r="M64" s="25"/>
     </row>
-    <row r="65" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="26">
         <v>16</v>
       </c>
@@ -3353,4 +3448,2419 @@
   <pageSetup scale="55" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A22692-FC7B-417F-9C20-2C8A29C87691}">
+  <dimension ref="A1:R65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="20">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20">
+        <v>104</v>
+      </c>
+      <c r="E2" s="20">
+        <v>0</v>
+      </c>
+      <c r="F2" s="20">
+        <v>0</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="20">
+        <v>1</v>
+      </c>
+      <c r="I2" s="20">
+        <v>5</v>
+      </c>
+      <c r="J2" s="20">
+        <v>25</v>
+      </c>
+      <c r="K2" s="20">
+        <v>60</v>
+      </c>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="35">
+        <v>1</v>
+      </c>
+      <c r="D3" s="24">
+        <v>111</v>
+      </c>
+      <c r="E3" s="35">
+        <v>0</v>
+      </c>
+      <c r="F3" s="35">
+        <v>0</v>
+      </c>
+      <c r="G3" s="35">
+        <v>0</v>
+      </c>
+      <c r="H3" s="35">
+        <v>10</v>
+      </c>
+      <c r="I3" s="35">
+        <v>20</v>
+      </c>
+      <c r="J3" s="35">
+        <v>50</v>
+      </c>
+      <c r="K3" s="35">
+        <v>70</v>
+      </c>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="35">
+        <v>1</v>
+      </c>
+      <c r="D4" s="24">
+        <v>105</v>
+      </c>
+      <c r="E4" s="35">
+        <v>0</v>
+      </c>
+      <c r="F4" s="35">
+        <v>0</v>
+      </c>
+      <c r="G4" s="35">
+        <v>0</v>
+      </c>
+      <c r="H4" s="35">
+        <v>0</v>
+      </c>
+      <c r="I4" s="35">
+        <v>2</v>
+      </c>
+      <c r="J4" s="35">
+        <v>30</v>
+      </c>
+      <c r="K4" s="35">
+        <v>50</v>
+      </c>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="35">
+        <v>1</v>
+      </c>
+      <c r="D5" s="35">
+        <v>110</v>
+      </c>
+      <c r="E5" s="35">
+        <v>0</v>
+      </c>
+      <c r="F5" s="35">
+        <v>0</v>
+      </c>
+      <c r="G5" s="35">
+        <v>0</v>
+      </c>
+      <c r="H5" s="35">
+        <v>1</v>
+      </c>
+      <c r="I5" s="35">
+        <v>5</v>
+      </c>
+      <c r="J5" s="35">
+        <v>25</v>
+      </c>
+      <c r="K5" s="35">
+        <v>30</v>
+      </c>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>5</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="35">
+        <v>1</v>
+      </c>
+      <c r="D6" s="35">
+        <v>116</v>
+      </c>
+      <c r="E6" s="35">
+        <v>0</v>
+      </c>
+      <c r="F6" s="35">
+        <v>0</v>
+      </c>
+      <c r="G6" s="35">
+        <v>0</v>
+      </c>
+      <c r="H6" s="35">
+        <v>15</v>
+      </c>
+      <c r="I6" s="35">
+        <v>10</v>
+      </c>
+      <c r="J6" s="35">
+        <v>25</v>
+      </c>
+      <c r="K6" s="35">
+        <v>40</v>
+      </c>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>6</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="35">
+        <v>1</v>
+      </c>
+      <c r="D7" s="35">
+        <v>112</v>
+      </c>
+      <c r="E7" s="35">
+        <v>0</v>
+      </c>
+      <c r="F7" s="35">
+        <v>0</v>
+      </c>
+      <c r="G7" s="35">
+        <v>0</v>
+      </c>
+      <c r="H7" s="35">
+        <v>0</v>
+      </c>
+      <c r="I7" s="35">
+        <v>10</v>
+      </c>
+      <c r="J7" s="35">
+        <v>45</v>
+      </c>
+      <c r="K7" s="35">
+        <v>40</v>
+      </c>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>7</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="35">
+        <v>1</v>
+      </c>
+      <c r="D8" s="35">
+        <v>108</v>
+      </c>
+      <c r="E8" s="35">
+        <v>0</v>
+      </c>
+      <c r="F8" s="35">
+        <v>0</v>
+      </c>
+      <c r="G8" s="35">
+        <v>0</v>
+      </c>
+      <c r="H8" s="35">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35">
+        <v>5</v>
+      </c>
+      <c r="J8" s="35">
+        <v>40</v>
+      </c>
+      <c r="K8" s="35">
+        <v>30</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>8</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="35">
+        <v>1</v>
+      </c>
+      <c r="D9" s="35">
+        <v>113</v>
+      </c>
+      <c r="E9" s="35">
+        <v>0</v>
+      </c>
+      <c r="F9" s="35">
+        <v>0</v>
+      </c>
+      <c r="G9" s="35">
+        <v>0</v>
+      </c>
+      <c r="H9" s="35">
+        <v>1</v>
+      </c>
+      <c r="I9" s="35">
+        <v>10</v>
+      </c>
+      <c r="J9" s="35">
+        <v>45</v>
+      </c>
+      <c r="K9" s="35">
+        <v>45</v>
+      </c>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>9</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="35">
+        <v>1</v>
+      </c>
+      <c r="D10" s="35">
+        <v>109</v>
+      </c>
+      <c r="E10" s="35">
+        <v>0</v>
+      </c>
+      <c r="F10" s="35">
+        <v>0</v>
+      </c>
+      <c r="G10" s="35">
+        <v>0</v>
+      </c>
+      <c r="H10" s="35">
+        <v>1</v>
+      </c>
+      <c r="I10" s="35">
+        <v>10</v>
+      </c>
+      <c r="J10" s="35">
+        <v>40</v>
+      </c>
+      <c r="K10" s="35">
+        <v>30</v>
+      </c>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>10</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="35">
+        <v>1</v>
+      </c>
+      <c r="D11" s="35">
+        <v>101</v>
+      </c>
+      <c r="E11" s="35">
+        <v>0</v>
+      </c>
+      <c r="F11" s="35">
+        <v>0</v>
+      </c>
+      <c r="G11" s="35">
+        <v>0</v>
+      </c>
+      <c r="H11" s="35">
+        <v>5</v>
+      </c>
+      <c r="I11" s="35">
+        <v>10</v>
+      </c>
+      <c r="J11" s="35">
+        <v>35</v>
+      </c>
+      <c r="K11" s="35">
+        <v>50</v>
+      </c>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
+        <v>11</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="35">
+        <v>1</v>
+      </c>
+      <c r="D12" s="35">
+        <v>103</v>
+      </c>
+      <c r="E12" s="35">
+        <v>0</v>
+      </c>
+      <c r="F12" s="35">
+        <v>0</v>
+      </c>
+      <c r="G12" s="35">
+        <v>0</v>
+      </c>
+      <c r="H12" s="35">
+        <v>0</v>
+      </c>
+      <c r="I12" s="35">
+        <v>5</v>
+      </c>
+      <c r="J12" s="35">
+        <v>20</v>
+      </c>
+      <c r="K12" s="35">
+        <v>45</v>
+      </c>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>12</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="35">
+        <v>1</v>
+      </c>
+      <c r="D13" s="35">
+        <v>114</v>
+      </c>
+      <c r="E13" s="35">
+        <v>0</v>
+      </c>
+      <c r="F13" s="35">
+        <v>0</v>
+      </c>
+      <c r="G13" s="35">
+        <v>0</v>
+      </c>
+      <c r="H13" s="35">
+        <v>2</v>
+      </c>
+      <c r="I13" s="35">
+        <v>10</v>
+      </c>
+      <c r="J13" s="35">
+        <v>30</v>
+      </c>
+      <c r="K13" s="35">
+        <v>20</v>
+      </c>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
+        <v>13</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="35">
+        <v>1</v>
+      </c>
+      <c r="D14" s="35">
+        <v>106</v>
+      </c>
+      <c r="E14" s="35">
+        <v>0</v>
+      </c>
+      <c r="F14" s="35">
+        <v>0</v>
+      </c>
+      <c r="G14" s="35">
+        <v>0</v>
+      </c>
+      <c r="H14" s="35">
+        <v>10</v>
+      </c>
+      <c r="I14" s="35">
+        <v>10</v>
+      </c>
+      <c r="J14" s="35">
+        <v>50</v>
+      </c>
+      <c r="K14" s="35">
+        <v>45</v>
+      </c>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>14</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="35">
+        <v>1</v>
+      </c>
+      <c r="D15" s="35">
+        <v>115</v>
+      </c>
+      <c r="E15" s="35">
+        <v>0</v>
+      </c>
+      <c r="F15" s="35">
+        <v>0</v>
+      </c>
+      <c r="G15" s="35">
+        <v>0</v>
+      </c>
+      <c r="H15" s="35">
+        <v>2</v>
+      </c>
+      <c r="I15" s="35">
+        <v>10</v>
+      </c>
+      <c r="J15" s="35">
+        <v>35</v>
+      </c>
+      <c r="K15" s="35">
+        <v>50</v>
+      </c>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
+        <v>15</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="35">
+        <v>1</v>
+      </c>
+      <c r="D16" s="35">
+        <v>107</v>
+      </c>
+      <c r="E16" s="35">
+        <v>0</v>
+      </c>
+      <c r="F16" s="35">
+        <v>0</v>
+      </c>
+      <c r="G16" s="35">
+        <v>0</v>
+      </c>
+      <c r="H16" s="35">
+        <v>1</v>
+      </c>
+      <c r="I16" s="35">
+        <v>5</v>
+      </c>
+      <c r="J16" s="35">
+        <v>30</v>
+      </c>
+      <c r="K16" s="35">
+        <v>20</v>
+      </c>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26">
+        <v>16</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="28">
+        <v>1</v>
+      </c>
+      <c r="D17" s="28">
+        <v>102</v>
+      </c>
+      <c r="E17" s="28">
+        <v>0</v>
+      </c>
+      <c r="F17" s="28">
+        <v>0</v>
+      </c>
+      <c r="G17" s="28">
+        <v>0</v>
+      </c>
+      <c r="H17" s="28">
+        <v>2</v>
+      </c>
+      <c r="I17" s="28">
+        <v>5</v>
+      </c>
+      <c r="J17" s="28">
+        <v>15</v>
+      </c>
+      <c r="K17" s="28">
+        <v>35</v>
+      </c>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
+        <v>1</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="35">
+        <v>2</v>
+      </c>
+      <c r="D18" s="20">
+        <v>209</v>
+      </c>
+      <c r="E18" s="35">
+        <v>0</v>
+      </c>
+      <c r="F18" s="35">
+        <v>0</v>
+      </c>
+      <c r="G18" s="35">
+        <v>0</v>
+      </c>
+      <c r="H18" s="35">
+        <v>1</v>
+      </c>
+      <c r="I18" s="35">
+        <v>10</v>
+      </c>
+      <c r="J18" s="35">
+        <v>50</v>
+      </c>
+      <c r="K18" s="35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
+        <v>2</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="35">
+        <v>2</v>
+      </c>
+      <c r="D19" s="24">
+        <v>208</v>
+      </c>
+      <c r="E19" s="35">
+        <v>0</v>
+      </c>
+      <c r="F19" s="35">
+        <v>0</v>
+      </c>
+      <c r="G19" s="35">
+        <v>0</v>
+      </c>
+      <c r="H19" s="35">
+        <v>5</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="J19" s="35">
+        <v>50</v>
+      </c>
+      <c r="K19" s="35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
+        <v>3</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="35">
+        <v>2</v>
+      </c>
+      <c r="D20" s="24">
+        <v>214</v>
+      </c>
+      <c r="E20" s="35">
+        <v>0</v>
+      </c>
+      <c r="F20" s="35">
+        <v>0</v>
+      </c>
+      <c r="G20" s="35">
+        <v>0</v>
+      </c>
+      <c r="H20" s="35">
+        <v>0</v>
+      </c>
+      <c r="I20" s="35">
+        <v>15</v>
+      </c>
+      <c r="J20" s="35">
+        <v>55</v>
+      </c>
+      <c r="K20" s="35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>4</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="35">
+        <v>2</v>
+      </c>
+      <c r="D21" s="35">
+        <v>203</v>
+      </c>
+      <c r="E21" s="35">
+        <v>0</v>
+      </c>
+      <c r="F21" s="35">
+        <v>0</v>
+      </c>
+      <c r="G21" s="35">
+        <v>0</v>
+      </c>
+      <c r="H21" s="35">
+        <v>5</v>
+      </c>
+      <c r="I21" s="35">
+        <v>10</v>
+      </c>
+      <c r="J21" s="35">
+        <v>50</v>
+      </c>
+      <c r="K21" s="35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
+        <v>5</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="35">
+        <v>2</v>
+      </c>
+      <c r="D22" s="35">
+        <v>202</v>
+      </c>
+      <c r="E22" s="35">
+        <v>0</v>
+      </c>
+      <c r="F22" s="35">
+        <v>0</v>
+      </c>
+      <c r="G22" s="35">
+        <v>0</v>
+      </c>
+      <c r="H22" s="35">
+        <v>5</v>
+      </c>
+      <c r="I22" s="35">
+        <v>10</v>
+      </c>
+      <c r="J22" s="35">
+        <v>35</v>
+      </c>
+      <c r="K22" s="35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
+        <v>6</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="35">
+        <v>2</v>
+      </c>
+      <c r="D23" s="35">
+        <v>210</v>
+      </c>
+      <c r="E23" s="35">
+        <v>0</v>
+      </c>
+      <c r="F23" s="35">
+        <v>0</v>
+      </c>
+      <c r="G23" s="35">
+        <v>0</v>
+      </c>
+      <c r="H23" s="35">
+        <v>5</v>
+      </c>
+      <c r="I23" s="35">
+        <v>20</v>
+      </c>
+      <c r="J23" s="35">
+        <v>40</v>
+      </c>
+      <c r="K23" s="35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
+        <v>7</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="35">
+        <v>2</v>
+      </c>
+      <c r="D24" s="35">
+        <v>212</v>
+      </c>
+      <c r="E24" s="35">
+        <v>0</v>
+      </c>
+      <c r="F24" s="35">
+        <v>0</v>
+      </c>
+      <c r="G24" s="35">
+        <v>0</v>
+      </c>
+      <c r="H24" s="35">
+        <v>3</v>
+      </c>
+      <c r="I24" s="35">
+        <v>15</v>
+      </c>
+      <c r="J24" s="35">
+        <v>45</v>
+      </c>
+      <c r="K24" s="35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>8</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="35">
+        <v>2</v>
+      </c>
+      <c r="D25" s="35">
+        <v>204</v>
+      </c>
+      <c r="E25" s="35">
+        <v>0</v>
+      </c>
+      <c r="F25" s="35">
+        <v>0</v>
+      </c>
+      <c r="G25" s="35">
+        <v>0</v>
+      </c>
+      <c r="H25" s="35">
+        <v>0</v>
+      </c>
+      <c r="I25" s="35">
+        <v>10</v>
+      </c>
+      <c r="J25" s="35">
+        <v>35</v>
+      </c>
+      <c r="K25" s="35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
+        <v>9</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="35">
+        <v>2</v>
+      </c>
+      <c r="D26" s="35">
+        <v>201</v>
+      </c>
+      <c r="E26" s="35">
+        <v>0</v>
+      </c>
+      <c r="F26" s="35">
+        <v>0</v>
+      </c>
+      <c r="G26" s="35">
+        <v>0</v>
+      </c>
+      <c r="H26" s="35">
+        <v>5</v>
+      </c>
+      <c r="I26" s="35">
+        <v>10</v>
+      </c>
+      <c r="J26" s="35">
+        <v>50</v>
+      </c>
+      <c r="K26" s="35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
+        <v>10</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="35">
+        <v>2</v>
+      </c>
+      <c r="D27" s="35">
+        <v>205</v>
+      </c>
+      <c r="E27" s="35">
+        <v>0</v>
+      </c>
+      <c r="F27" s="35">
+        <v>0</v>
+      </c>
+      <c r="G27" s="35">
+        <v>0</v>
+      </c>
+      <c r="H27" s="35">
+        <v>10</v>
+      </c>
+      <c r="I27" s="35">
+        <v>10</v>
+      </c>
+      <c r="J27" s="35">
+        <v>45</v>
+      </c>
+      <c r="K27" s="35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <v>11</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="35">
+        <v>2</v>
+      </c>
+      <c r="D28" s="35">
+        <v>213</v>
+      </c>
+      <c r="E28" s="35">
+        <v>0</v>
+      </c>
+      <c r="F28" s="35">
+        <v>0</v>
+      </c>
+      <c r="G28" s="35">
+        <v>0</v>
+      </c>
+      <c r="H28" s="35">
+        <v>2</v>
+      </c>
+      <c r="I28" s="35">
+        <v>20</v>
+      </c>
+      <c r="J28" s="35">
+        <v>50</v>
+      </c>
+      <c r="K28" s="35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
+        <v>12</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="35">
+        <v>2</v>
+      </c>
+      <c r="D29" s="35">
+        <v>206</v>
+      </c>
+      <c r="E29" s="35">
+        <v>0</v>
+      </c>
+      <c r="F29" s="35">
+        <v>0</v>
+      </c>
+      <c r="G29" s="35">
+        <v>0</v>
+      </c>
+      <c r="H29" s="35">
+        <v>5</v>
+      </c>
+      <c r="I29" s="35">
+        <v>10</v>
+      </c>
+      <c r="J29" s="35">
+        <v>25</v>
+      </c>
+      <c r="K29" s="35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
+        <v>13</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="35">
+        <v>2</v>
+      </c>
+      <c r="D30" s="35">
+        <v>207</v>
+      </c>
+      <c r="E30" s="35">
+        <v>0</v>
+      </c>
+      <c r="F30" s="35">
+        <v>0</v>
+      </c>
+      <c r="G30" s="35">
+        <v>0</v>
+      </c>
+      <c r="H30" s="35">
+        <v>2</v>
+      </c>
+      <c r="I30" s="35">
+        <v>10</v>
+      </c>
+      <c r="J30" s="35">
+        <v>55</v>
+      </c>
+      <c r="K30" s="35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="22">
+        <v>14</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="35">
+        <v>2</v>
+      </c>
+      <c r="D31" s="35">
+        <v>211</v>
+      </c>
+      <c r="E31" s="35">
+        <v>0</v>
+      </c>
+      <c r="F31" s="35">
+        <v>0</v>
+      </c>
+      <c r="G31" s="35">
+        <v>0</v>
+      </c>
+      <c r="H31" s="35">
+        <v>20</v>
+      </c>
+      <c r="I31" s="35">
+        <v>5</v>
+      </c>
+      <c r="J31" s="35">
+        <v>35</v>
+      </c>
+      <c r="K31" s="35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="22">
+        <v>15</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="35">
+        <v>2</v>
+      </c>
+      <c r="D32" s="35">
+        <v>215</v>
+      </c>
+      <c r="E32" s="35">
+        <v>0</v>
+      </c>
+      <c r="F32" s="35">
+        <v>0</v>
+      </c>
+      <c r="G32" s="35">
+        <v>0</v>
+      </c>
+      <c r="H32" s="35">
+        <v>10</v>
+      </c>
+      <c r="I32" s="35">
+        <v>15</v>
+      </c>
+      <c r="J32" s="35">
+        <v>25</v>
+      </c>
+      <c r="K32" s="35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="26">
+        <v>16</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="37">
+        <v>2</v>
+      </c>
+      <c r="D33" s="28">
+        <v>216</v>
+      </c>
+      <c r="E33" s="28">
+        <v>0</v>
+      </c>
+      <c r="F33" s="28">
+        <v>0</v>
+      </c>
+      <c r="G33" s="28">
+        <v>0</v>
+      </c>
+      <c r="H33" s="28">
+        <v>15</v>
+      </c>
+      <c r="I33" s="28">
+        <v>10</v>
+      </c>
+      <c r="J33" s="28">
+        <v>35</v>
+      </c>
+      <c r="K33" s="28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="19">
+        <v>1</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="38">
+        <v>3</v>
+      </c>
+      <c r="D34" s="20">
+        <v>301</v>
+      </c>
+      <c r="E34" s="20">
+        <v>0</v>
+      </c>
+      <c r="F34" s="20">
+        <v>0</v>
+      </c>
+      <c r="G34" s="20">
+        <v>0</v>
+      </c>
+      <c r="H34" s="20">
+        <v>10</v>
+      </c>
+      <c r="I34" s="20">
+        <v>25</v>
+      </c>
+      <c r="J34" s="20">
+        <v>40</v>
+      </c>
+      <c r="K34" s="20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
+        <v>2</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="35">
+        <v>3</v>
+      </c>
+      <c r="D35" s="24">
+        <v>310</v>
+      </c>
+      <c r="E35" s="35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="35">
+        <v>0</v>
+      </c>
+      <c r="G35" s="35">
+        <v>0</v>
+      </c>
+      <c r="H35" s="35">
+        <v>3</v>
+      </c>
+      <c r="I35" s="35">
+        <v>10</v>
+      </c>
+      <c r="J35" s="35">
+        <v>35</v>
+      </c>
+      <c r="K35" s="35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
+        <v>3</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="35">
+        <v>3</v>
+      </c>
+      <c r="D36" s="24">
+        <v>308</v>
+      </c>
+      <c r="E36" s="35">
+        <v>0</v>
+      </c>
+      <c r="F36" s="35">
+        <v>0</v>
+      </c>
+      <c r="G36" s="35">
+        <v>0</v>
+      </c>
+      <c r="H36" s="35">
+        <v>5</v>
+      </c>
+      <c r="I36" s="35">
+        <v>10</v>
+      </c>
+      <c r="J36" s="35">
+        <v>35</v>
+      </c>
+      <c r="K36" s="35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="22">
+        <v>4</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="35">
+        <v>3</v>
+      </c>
+      <c r="D37" s="35">
+        <v>305</v>
+      </c>
+      <c r="E37" s="35">
+        <v>0</v>
+      </c>
+      <c r="F37" s="35">
+        <v>0</v>
+      </c>
+      <c r="G37" s="35">
+        <v>0</v>
+      </c>
+      <c r="H37" s="35">
+        <v>5</v>
+      </c>
+      <c r="I37" s="35">
+        <v>15</v>
+      </c>
+      <c r="J37" s="35">
+        <v>50</v>
+      </c>
+      <c r="K37" s="35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="22">
+        <v>5</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="35">
+        <v>3</v>
+      </c>
+      <c r="D38" s="35">
+        <v>309</v>
+      </c>
+      <c r="E38" s="35">
+        <v>0</v>
+      </c>
+      <c r="F38" s="35">
+        <v>0</v>
+      </c>
+      <c r="G38" s="35">
+        <v>0</v>
+      </c>
+      <c r="H38" s="35">
+        <v>20</v>
+      </c>
+      <c r="I38" s="35">
+        <v>10</v>
+      </c>
+      <c r="J38" s="35">
+        <v>15</v>
+      </c>
+      <c r="K38" s="35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="22">
+        <v>6</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="35">
+        <v>3</v>
+      </c>
+      <c r="D39" s="35">
+        <v>306</v>
+      </c>
+      <c r="E39" s="35">
+        <v>0</v>
+      </c>
+      <c r="F39" s="35">
+        <v>0</v>
+      </c>
+      <c r="G39" s="35">
+        <v>0</v>
+      </c>
+      <c r="H39" s="35">
+        <v>10</v>
+      </c>
+      <c r="I39" s="35">
+        <v>20</v>
+      </c>
+      <c r="J39" s="35">
+        <v>50</v>
+      </c>
+      <c r="K39" s="35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="22">
+        <v>7</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="35">
+        <v>3</v>
+      </c>
+      <c r="D40" s="35">
+        <v>302</v>
+      </c>
+      <c r="E40" s="35">
+        <v>0</v>
+      </c>
+      <c r="F40" s="35">
+        <v>0</v>
+      </c>
+      <c r="G40" s="35">
+        <v>0</v>
+      </c>
+      <c r="H40" s="35">
+        <v>2</v>
+      </c>
+      <c r="I40" s="35">
+        <v>15</v>
+      </c>
+      <c r="J40" s="35">
+        <v>40</v>
+      </c>
+      <c r="K40" s="35">
+        <v>35</v>
+      </c>
+      <c r="M40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="22">
+        <v>8</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="35">
+        <v>3</v>
+      </c>
+      <c r="D41" s="35">
+        <v>314</v>
+      </c>
+      <c r="E41" s="35">
+        <v>0</v>
+      </c>
+      <c r="F41" s="35">
+        <v>0</v>
+      </c>
+      <c r="G41" s="35">
+        <v>0</v>
+      </c>
+      <c r="H41" s="35">
+        <v>10</v>
+      </c>
+      <c r="I41" s="35">
+        <v>2</v>
+      </c>
+      <c r="J41" s="35">
+        <v>15</v>
+      </c>
+      <c r="K41" s="35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="22">
+        <v>9</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="35">
+        <v>3</v>
+      </c>
+      <c r="D42" s="35">
+        <v>315</v>
+      </c>
+      <c r="E42" s="35">
+        <v>0</v>
+      </c>
+      <c r="F42" s="35">
+        <v>0</v>
+      </c>
+      <c r="G42" s="35">
+        <v>0</v>
+      </c>
+      <c r="H42" s="35">
+        <v>1</v>
+      </c>
+      <c r="I42" s="35">
+        <v>2</v>
+      </c>
+      <c r="J42" s="35">
+        <v>25</v>
+      </c>
+      <c r="K42" s="35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="22">
+        <v>10</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="35">
+        <v>3</v>
+      </c>
+      <c r="D43" s="35">
+        <v>304</v>
+      </c>
+      <c r="E43" s="35">
+        <v>0</v>
+      </c>
+      <c r="F43" s="35">
+        <v>0</v>
+      </c>
+      <c r="G43" s="35">
+        <v>0</v>
+      </c>
+      <c r="H43" s="35">
+        <v>5</v>
+      </c>
+      <c r="I43" s="35">
+        <v>15</v>
+      </c>
+      <c r="J43" s="35">
+        <v>30</v>
+      </c>
+      <c r="K43" s="35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="22">
+        <v>11</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="35">
+        <v>3</v>
+      </c>
+      <c r="D44" s="35">
+        <v>312</v>
+      </c>
+      <c r="E44" s="35">
+        <v>0</v>
+      </c>
+      <c r="F44" s="35">
+        <v>0</v>
+      </c>
+      <c r="G44" s="35">
+        <v>0</v>
+      </c>
+      <c r="H44" s="35">
+        <v>2</v>
+      </c>
+      <c r="I44" s="35">
+        <v>5</v>
+      </c>
+      <c r="J44" s="35">
+        <v>35</v>
+      </c>
+      <c r="K44" s="35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="22">
+        <v>12</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="35">
+        <v>3</v>
+      </c>
+      <c r="D45" s="35">
+        <v>307</v>
+      </c>
+      <c r="E45" s="35">
+        <v>0</v>
+      </c>
+      <c r="F45" s="35">
+        <v>0</v>
+      </c>
+      <c r="G45" s="35">
+        <v>0</v>
+      </c>
+      <c r="H45" s="35">
+        <v>10</v>
+      </c>
+      <c r="I45" s="35">
+        <v>10</v>
+      </c>
+      <c r="J45" s="35">
+        <v>35</v>
+      </c>
+      <c r="K45" s="35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="22">
+        <v>13</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="35">
+        <v>3</v>
+      </c>
+      <c r="D46" s="35">
+        <v>303</v>
+      </c>
+      <c r="E46" s="35">
+        <v>0</v>
+      </c>
+      <c r="F46" s="35">
+        <v>0</v>
+      </c>
+      <c r="G46" s="35">
+        <v>0</v>
+      </c>
+      <c r="H46" s="35">
+        <v>5</v>
+      </c>
+      <c r="I46" s="35">
+        <v>10</v>
+      </c>
+      <c r="J46" s="35">
+        <v>50</v>
+      </c>
+      <c r="K46" s="35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="22">
+        <v>14</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="35">
+        <v>3</v>
+      </c>
+      <c r="D47" s="35">
+        <v>316</v>
+      </c>
+      <c r="E47" s="35">
+        <v>0</v>
+      </c>
+      <c r="F47" s="35">
+        <v>0</v>
+      </c>
+      <c r="G47" s="35">
+        <v>0</v>
+      </c>
+      <c r="H47" s="35">
+        <v>10</v>
+      </c>
+      <c r="I47" s="35">
+        <v>10</v>
+      </c>
+      <c r="J47" s="35">
+        <v>45</v>
+      </c>
+      <c r="K47" s="35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="22">
+        <v>15</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="35">
+        <v>3</v>
+      </c>
+      <c r="D48" s="35">
+        <v>311</v>
+      </c>
+      <c r="E48" s="35">
+        <v>0</v>
+      </c>
+      <c r="F48" s="35">
+        <v>0</v>
+      </c>
+      <c r="G48" s="35">
+        <v>0</v>
+      </c>
+      <c r="H48" s="35">
+        <v>0</v>
+      </c>
+      <c r="I48" s="35">
+        <v>10</v>
+      </c>
+      <c r="J48" s="35">
+        <v>30</v>
+      </c>
+      <c r="K48" s="35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="26">
+        <v>16</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="37">
+        <v>3</v>
+      </c>
+      <c r="D49" s="28">
+        <v>313</v>
+      </c>
+      <c r="E49" s="28">
+        <v>0</v>
+      </c>
+      <c r="F49" s="28">
+        <v>0</v>
+      </c>
+      <c r="G49" s="28">
+        <v>0</v>
+      </c>
+      <c r="H49" s="28">
+        <v>3</v>
+      </c>
+      <c r="I49" s="28">
+        <v>10</v>
+      </c>
+      <c r="J49" s="28">
+        <v>20</v>
+      </c>
+      <c r="K49" s="28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="19">
+        <v>1</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="38">
+        <v>4</v>
+      </c>
+      <c r="D50" s="20">
+        <v>413</v>
+      </c>
+      <c r="E50" s="35">
+        <v>0</v>
+      </c>
+      <c r="F50" s="35">
+        <v>0</v>
+      </c>
+      <c r="G50" s="35">
+        <v>0</v>
+      </c>
+      <c r="H50" s="20">
+        <v>0</v>
+      </c>
+      <c r="I50" s="20">
+        <v>5</v>
+      </c>
+      <c r="J50" s="20">
+        <v>40</v>
+      </c>
+      <c r="K50" s="20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="22">
+        <v>2</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="35">
+        <v>4</v>
+      </c>
+      <c r="D51" s="24">
+        <v>401</v>
+      </c>
+      <c r="E51" s="35">
+        <v>0</v>
+      </c>
+      <c r="F51" s="35">
+        <v>0</v>
+      </c>
+      <c r="G51" s="35">
+        <v>0</v>
+      </c>
+      <c r="H51" s="35">
+        <v>1</v>
+      </c>
+      <c r="I51" s="35">
+        <v>10</v>
+      </c>
+      <c r="J51" s="35">
+        <v>50</v>
+      </c>
+      <c r="K51" s="35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="22">
+        <v>3</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="35">
+        <v>4</v>
+      </c>
+      <c r="D52" s="24">
+        <v>404</v>
+      </c>
+      <c r="E52" s="35">
+        <v>0</v>
+      </c>
+      <c r="F52" s="35">
+        <v>0</v>
+      </c>
+      <c r="G52" s="35">
+        <v>0</v>
+      </c>
+      <c r="H52" s="35">
+        <v>15</v>
+      </c>
+      <c r="I52" s="35">
+        <v>10</v>
+      </c>
+      <c r="J52" s="35">
+        <v>45</v>
+      </c>
+      <c r="K52" s="35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="22">
+        <v>4</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="35">
+        <v>4</v>
+      </c>
+      <c r="D53" s="35">
+        <v>403</v>
+      </c>
+      <c r="E53" s="35">
+        <v>0</v>
+      </c>
+      <c r="F53" s="35">
+        <v>0</v>
+      </c>
+      <c r="G53" s="35">
+        <v>0</v>
+      </c>
+      <c r="H53" s="35">
+        <v>2</v>
+      </c>
+      <c r="I53" s="35">
+        <v>2</v>
+      </c>
+      <c r="J53" s="35">
+        <v>20</v>
+      </c>
+      <c r="K53" s="35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="22">
+        <v>5</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="35">
+        <v>4</v>
+      </c>
+      <c r="D54" s="35">
+        <v>414</v>
+      </c>
+      <c r="E54" s="35">
+        <v>0</v>
+      </c>
+      <c r="F54" s="35">
+        <v>0</v>
+      </c>
+      <c r="G54" s="35">
+        <v>0</v>
+      </c>
+      <c r="H54" s="35">
+        <v>20</v>
+      </c>
+      <c r="I54" s="35">
+        <v>15</v>
+      </c>
+      <c r="J54" s="35">
+        <v>25</v>
+      </c>
+      <c r="K54" s="35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="22">
+        <v>6</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="35">
+        <v>4</v>
+      </c>
+      <c r="D55" s="35">
+        <v>411</v>
+      </c>
+      <c r="E55" s="35">
+        <v>0</v>
+      </c>
+      <c r="F55" s="35">
+        <v>0</v>
+      </c>
+      <c r="G55" s="35">
+        <v>0</v>
+      </c>
+      <c r="H55" s="35">
+        <v>0</v>
+      </c>
+      <c r="I55" s="35">
+        <v>5</v>
+      </c>
+      <c r="J55" s="35">
+        <v>50</v>
+      </c>
+      <c r="K55" s="35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="22">
+        <v>7</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="35">
+        <v>4</v>
+      </c>
+      <c r="D56" s="35">
+        <v>409</v>
+      </c>
+      <c r="E56" s="35">
+        <v>0</v>
+      </c>
+      <c r="F56" s="35">
+        <v>0</v>
+      </c>
+      <c r="G56" s="35">
+        <v>0</v>
+      </c>
+      <c r="H56" s="35">
+        <v>5</v>
+      </c>
+      <c r="I56" s="35">
+        <v>10</v>
+      </c>
+      <c r="J56" s="35">
+        <v>15</v>
+      </c>
+      <c r="K56" s="35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="22">
+        <v>8</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="35">
+        <v>4</v>
+      </c>
+      <c r="D57" s="35">
+        <v>405</v>
+      </c>
+      <c r="E57" s="35">
+        <v>0</v>
+      </c>
+      <c r="F57" s="35">
+        <v>0</v>
+      </c>
+      <c r="G57" s="35">
+        <v>0</v>
+      </c>
+      <c r="H57" s="35">
+        <v>5</v>
+      </c>
+      <c r="I57" s="35">
+        <v>10</v>
+      </c>
+      <c r="J57" s="35">
+        <v>50</v>
+      </c>
+      <c r="K57" s="35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="22">
+        <v>9</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="35">
+        <v>4</v>
+      </c>
+      <c r="D58" s="35">
+        <v>406</v>
+      </c>
+      <c r="E58" s="35">
+        <v>0</v>
+      </c>
+      <c r="F58" s="35">
+        <v>0</v>
+      </c>
+      <c r="G58" s="35">
+        <v>0</v>
+      </c>
+      <c r="H58" s="35">
+        <v>15</v>
+      </c>
+      <c r="I58" s="35">
+        <v>15</v>
+      </c>
+      <c r="J58" s="35">
+        <v>55</v>
+      </c>
+      <c r="K58" s="35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="22">
+        <v>10</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="35">
+        <v>4</v>
+      </c>
+      <c r="D59" s="35">
+        <v>410</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="F59" s="24">
+        <v>0</v>
+      </c>
+      <c r="G59" s="24">
+        <v>0</v>
+      </c>
+      <c r="H59" s="35">
+        <v>5</v>
+      </c>
+      <c r="I59" s="35">
+        <v>5</v>
+      </c>
+      <c r="J59" s="35">
+        <v>40</v>
+      </c>
+      <c r="K59" s="35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="22">
+        <v>11</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="35">
+        <v>4</v>
+      </c>
+      <c r="D60" s="35">
+        <v>407</v>
+      </c>
+      <c r="E60" s="35">
+        <v>0</v>
+      </c>
+      <c r="F60" s="35">
+        <v>0</v>
+      </c>
+      <c r="G60" s="35">
+        <v>0</v>
+      </c>
+      <c r="H60" s="35">
+        <v>10</v>
+      </c>
+      <c r="I60" s="35">
+        <v>10</v>
+      </c>
+      <c r="J60" s="35">
+        <v>25</v>
+      </c>
+      <c r="K60" s="35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="22">
+        <v>12</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" s="35">
+        <v>4</v>
+      </c>
+      <c r="D61" s="35">
+        <v>416</v>
+      </c>
+      <c r="E61" s="35">
+        <v>0</v>
+      </c>
+      <c r="F61" s="35">
+        <v>0</v>
+      </c>
+      <c r="G61" s="35">
+        <v>0</v>
+      </c>
+      <c r="H61" s="35">
+        <v>10</v>
+      </c>
+      <c r="I61" s="35">
+        <v>10</v>
+      </c>
+      <c r="J61" s="35">
+        <v>35</v>
+      </c>
+      <c r="K61" s="35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="22">
+        <v>13</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="35">
+        <v>4</v>
+      </c>
+      <c r="D62" s="35">
+        <v>402</v>
+      </c>
+      <c r="E62" s="35">
+        <v>0</v>
+      </c>
+      <c r="F62" s="35">
+        <v>0</v>
+      </c>
+      <c r="G62" s="35">
+        <v>0</v>
+      </c>
+      <c r="H62" s="35">
+        <v>2</v>
+      </c>
+      <c r="I62" s="35">
+        <v>5</v>
+      </c>
+      <c r="J62" s="35">
+        <v>50</v>
+      </c>
+      <c r="K62" s="35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="22">
+        <v>14</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="35">
+        <v>4</v>
+      </c>
+      <c r="D63" s="35">
+        <v>415</v>
+      </c>
+      <c r="E63" s="35">
+        <v>0</v>
+      </c>
+      <c r="F63" s="35">
+        <v>0</v>
+      </c>
+      <c r="G63" s="35">
+        <v>0</v>
+      </c>
+      <c r="H63" s="35">
+        <v>10</v>
+      </c>
+      <c r="I63" s="35">
+        <v>10</v>
+      </c>
+      <c r="J63" s="35">
+        <v>40</v>
+      </c>
+      <c r="K63" s="35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="22">
+        <v>15</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="35">
+        <v>4</v>
+      </c>
+      <c r="D64" s="35">
+        <v>412</v>
+      </c>
+      <c r="E64" s="35">
+        <v>0</v>
+      </c>
+      <c r="F64" s="35">
+        <v>0</v>
+      </c>
+      <c r="G64" s="35">
+        <v>0</v>
+      </c>
+      <c r="H64" s="35">
+        <v>0</v>
+      </c>
+      <c r="I64" s="35">
+        <v>5</v>
+      </c>
+      <c r="J64" s="35">
+        <v>20</v>
+      </c>
+      <c r="K64" s="35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="26">
+        <v>16</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" s="37">
+        <v>4</v>
+      </c>
+      <c r="D65" s="28">
+        <v>408</v>
+      </c>
+      <c r="E65" s="28">
+        <v>0</v>
+      </c>
+      <c r="F65" s="28">
+        <v>0</v>
+      </c>
+      <c r="G65" s="28">
+        <v>0</v>
+      </c>
+      <c r="H65" s="28">
+        <v>3</v>
+      </c>
+      <c r="I65" s="28">
+        <v>3</v>
+      </c>
+      <c r="J65" s="28">
+        <v>20</v>
+      </c>
+      <c r="K65" s="28">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/2021/Data/Tank Mix Trial Map 2021.xlsx
+++ b/2021/Data/Tank Mix Trial Map 2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudha.gcupadhaya\OneDrive - Washington State University (email.wsu.edu)\Desktop\TankMixTrials\2021\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailwsu-my.sharepoint.com/personal/sudha_gcupadhaya_wsu_edu/Documents/Desktop/TankMixTrials/2021/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{580CD309-6B34-714A-9B86-DDB3C9CBEC4A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FDE9618-5583-4569-8C11-558841EA962F}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{580CD309-6B34-714A-9B86-DDB3C9CBEC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DBEF4BE-F88B-417B-9578-5AFFE1CE788B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{F3CFAEF1-08B7-4C4B-A5A9-372546D6B2DD}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10876" activeTab="2" xr2:uid="{F3CFAEF1-08B7-4C4B-A5A9-372546D6B2DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Trial Map 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="111">
   <si>
     <t>Jun-1-2021 (Potato-PC-TankMix-2021) ARM 2021.0 Trial Map Page 1 of 1</t>
   </si>
@@ -431,6 +431,9 @@
   </si>
   <si>
     <t>* Downy mildew</t>
+  </si>
+  <si>
+    <t>Beleaf;Bravo</t>
   </si>
 </sst>
 </file>
@@ -812,9 +815,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1296,30 +1299,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE4523A-557C-42C4-B357-3EC885EB9F6A}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1336,19 +1339,19 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="40"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5" s="41"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1356,17 +1359,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1377,7 +1380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1385,7 +1388,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1393,7 +1396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1401,7 +1404,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1409,7 +1412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1417,7 +1420,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1425,7 +1428,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>7</v>
       </c>
@@ -1433,15 +1436,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>9</v>
       </c>
@@ -1449,7 +1452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>10</v>
       </c>
@@ -1457,7 +1460,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>11</v>
       </c>
@@ -1465,7 +1468,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>12</v>
       </c>
@@ -1473,7 +1476,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>13</v>
       </c>
@@ -1481,7 +1484,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>14</v>
       </c>
@@ -1489,7 +1492,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>15</v>
       </c>
@@ -1497,7 +1500,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>16</v>
       </c>
@@ -1521,12 +1524,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="5" width="5.42578125" customWidth="1"/>
+    <col min="1" max="5" width="5.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -1543,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
@@ -1560,7 +1563,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>40</v>
       </c>
@@ -1577,7 +1580,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>45</v>
       </c>
@@ -1594,7 +1597,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>50</v>
       </c>
@@ -1611,7 +1614,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
         <v>55</v>
       </c>
@@ -1628,7 +1631,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="11" t="s">
         <v>60</v>
       </c>
@@ -1645,7 +1648,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>65</v>
       </c>
@@ -1662,7 +1665,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
         <v>70</v>
       </c>
@@ -1679,7 +1682,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>75</v>
       </c>
@@ -1696,7 +1699,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="17" t="s">
         <v>80</v>
       </c>
@@ -1713,7 +1716,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="18" t="s">
         <v>85</v>
       </c>
@@ -1730,7 +1733,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="9" t="s">
         <v>90</v>
       </c>
@@ -1760,16 +1763,16 @@
   </sheetPr>
   <dimension ref="A1:W65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="30" t="s">
         <v>95</v>
       </c>
@@ -1808,7 +1811,7 @@
       <c r="V1" s="24"/>
       <c r="W1" s="24"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -1843,7 +1846,7 @@
       <c r="V2" s="24"/>
       <c r="W2" s="24"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3" s="22">
         <v>2</v>
       </c>
@@ -1876,7 +1879,7 @@
       <c r="V3" s="24"/>
       <c r="W3" s="24"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -1909,7 +1912,7 @@
       <c r="V4" s="24"/>
       <c r="W4" s="24"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" s="22">
         <v>4</v>
       </c>
@@ -1942,7 +1945,7 @@
       <c r="V5" s="24"/>
       <c r="W5" s="24"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" s="22">
         <v>5</v>
       </c>
@@ -1975,7 +1978,7 @@
       <c r="V6" s="24"/>
       <c r="W6" s="24"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" s="22">
         <v>6</v>
       </c>
@@ -2008,7 +2011,7 @@
       <c r="V7" s="24"/>
       <c r="W7" s="24"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" s="22">
         <v>7</v>
       </c>
@@ -2041,12 +2044,12 @@
       <c r="V8" s="24"/>
       <c r="W8" s="24"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9" s="22">
         <v>8</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="C9" s="35">
         <v>1</v>
@@ -2074,7 +2077,7 @@
       <c r="V9" s="24"/>
       <c r="W9" s="24"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" s="22">
         <v>9</v>
       </c>
@@ -2107,7 +2110,7 @@
       <c r="V10" s="24"/>
       <c r="W10" s="24"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11" s="22">
         <v>10</v>
       </c>
@@ -2140,7 +2143,7 @@
       <c r="V11" s="24"/>
       <c r="W11" s="24"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A12" s="22">
         <v>11</v>
       </c>
@@ -2173,7 +2176,7 @@
       <c r="V12" s="24"/>
       <c r="W12" s="24"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13" s="22">
         <v>12</v>
       </c>
@@ -2206,7 +2209,7 @@
       <c r="V13" s="24"/>
       <c r="W13" s="24"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A14" s="22">
         <v>13</v>
       </c>
@@ -2239,7 +2242,7 @@
       <c r="V14" s="24"/>
       <c r="W14" s="24"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A15" s="22">
         <v>14</v>
       </c>
@@ -2272,7 +2275,7 @@
       <c r="V15" s="24"/>
       <c r="W15" s="24"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A16" s="22">
         <v>15</v>
       </c>
@@ -2305,7 +2308,7 @@
       <c r="V16" s="24"/>
       <c r="W16" s="24"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="26">
         <v>16</v>
       </c>
@@ -2338,7 +2341,7 @@
       <c r="V17" s="24"/>
       <c r="W17" s="24"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A18" s="19">
         <v>1</v>
       </c>
@@ -2361,7 +2364,7 @@
       <c r="L18" s="24"/>
       <c r="M18" s="25"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A19" s="22">
         <v>2</v>
       </c>
@@ -2384,7 +2387,7 @@
       <c r="L19" s="24"/>
       <c r="M19" s="25"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A20" s="22">
         <v>3</v>
       </c>
@@ -2407,7 +2410,7 @@
       <c r="L20" s="24"/>
       <c r="M20" s="25"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A21" s="22">
         <v>4</v>
       </c>
@@ -2430,7 +2433,7 @@
       <c r="L21" s="24"/>
       <c r="M21" s="25"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A22" s="22">
         <v>5</v>
       </c>
@@ -2453,7 +2456,7 @@
       <c r="L22" s="24"/>
       <c r="M22" s="25"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A23" s="22">
         <v>6</v>
       </c>
@@ -2476,7 +2479,7 @@
       <c r="L23" s="24"/>
       <c r="M23" s="25"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A24" s="22">
         <v>7</v>
       </c>
@@ -2499,12 +2502,12 @@
       <c r="L24" s="24"/>
       <c r="M24" s="25"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A25" s="22">
         <v>8</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="C25" s="35">
         <v>2</v>
@@ -2522,7 +2525,7 @@
       <c r="L25" s="24"/>
       <c r="M25" s="25"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A26" s="22">
         <v>9</v>
       </c>
@@ -2545,7 +2548,7 @@
       <c r="L26" s="24"/>
       <c r="M26" s="25"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A27" s="22">
         <v>10</v>
       </c>
@@ -2568,7 +2571,7 @@
       <c r="L27" s="24"/>
       <c r="M27" s="25"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A28" s="22">
         <v>11</v>
       </c>
@@ -2591,7 +2594,7 @@
       <c r="L28" s="24"/>
       <c r="M28" s="25"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A29" s="22">
         <v>12</v>
       </c>
@@ -2614,7 +2617,7 @@
       <c r="L29" s="24"/>
       <c r="M29" s="25"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A30" s="22">
         <v>13</v>
       </c>
@@ -2637,7 +2640,7 @@
       <c r="L30" s="24"/>
       <c r="M30" s="25"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A31" s="22">
         <v>14</v>
       </c>
@@ -2660,7 +2663,7 @@
       <c r="L31" s="24"/>
       <c r="M31" s="25"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A32" s="22">
         <v>15</v>
       </c>
@@ -2683,7 +2686,7 @@
       <c r="L32" s="24"/>
       <c r="M32" s="25"/>
     </row>
-    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="26">
         <v>16</v>
       </c>
@@ -2706,7 +2709,7 @@
       <c r="L33" s="28"/>
       <c r="M33" s="29"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="19">
         <v>1</v>
       </c>
@@ -2729,7 +2732,7 @@
       <c r="L34" s="20"/>
       <c r="M34" s="21"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" s="22">
         <v>2</v>
       </c>
@@ -2752,7 +2755,7 @@
       <c r="L35" s="24"/>
       <c r="M35" s="25"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="22">
         <v>3</v>
       </c>
@@ -2775,7 +2778,7 @@
       <c r="L36" s="24"/>
       <c r="M36" s="25"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="22">
         <v>4</v>
       </c>
@@ -2798,7 +2801,7 @@
       <c r="L37" s="24"/>
       <c r="M37" s="25"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="22">
         <v>5</v>
       </c>
@@ -2821,7 +2824,7 @@
       <c r="L38" s="24"/>
       <c r="M38" s="25"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" s="22">
         <v>6</v>
       </c>
@@ -2844,7 +2847,7 @@
       <c r="L39" s="24"/>
       <c r="M39" s="25"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" s="22">
         <v>7</v>
       </c>
@@ -2867,12 +2870,12 @@
       <c r="L40" s="24"/>
       <c r="M40" s="25"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" s="22">
         <v>8</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="C41" s="35">
         <v>3</v>
@@ -2890,7 +2893,7 @@
       <c r="L41" s="24"/>
       <c r="M41" s="25"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" s="22">
         <v>9</v>
       </c>
@@ -2913,7 +2916,7 @@
       <c r="L42" s="24"/>
       <c r="M42" s="25"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" s="22">
         <v>10</v>
       </c>
@@ -2936,7 +2939,7 @@
       <c r="L43" s="24"/>
       <c r="M43" s="25"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" s="22">
         <v>11</v>
       </c>
@@ -2959,7 +2962,7 @@
       <c r="L44" s="24"/>
       <c r="M44" s="25"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45" s="22">
         <v>12</v>
       </c>
@@ -2982,7 +2985,7 @@
       <c r="L45" s="24"/>
       <c r="M45" s="25"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" s="22">
         <v>13</v>
       </c>
@@ -3005,7 +3008,7 @@
       <c r="L46" s="24"/>
       <c r="M46" s="25"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" s="22">
         <v>14</v>
       </c>
@@ -3028,7 +3031,7 @@
       <c r="L47" s="24"/>
       <c r="M47" s="25"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48" s="22">
         <v>15</v>
       </c>
@@ -3051,7 +3054,7 @@
       <c r="L48" s="24"/>
       <c r="M48" s="25"/>
     </row>
-    <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="26">
         <v>16</v>
       </c>
@@ -3074,7 +3077,7 @@
       <c r="L49" s="28"/>
       <c r="M49" s="29"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A50" s="19">
         <v>1</v>
       </c>
@@ -3097,7 +3100,7 @@
       <c r="L50" s="20"/>
       <c r="M50" s="21"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51" s="22">
         <v>2</v>
       </c>
@@ -3120,7 +3123,7 @@
       <c r="L51" s="24"/>
       <c r="M51" s="25"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A52" s="22">
         <v>3</v>
       </c>
@@ -3143,7 +3146,7 @@
       <c r="L52" s="24"/>
       <c r="M52" s="25"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A53" s="22">
         <v>4</v>
       </c>
@@ -3166,7 +3169,7 @@
       <c r="L53" s="24"/>
       <c r="M53" s="25"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A54" s="22">
         <v>5</v>
       </c>
@@ -3189,7 +3192,7 @@
       <c r="L54" s="24"/>
       <c r="M54" s="25"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A55" s="22">
         <v>6</v>
       </c>
@@ -3212,7 +3215,7 @@
       <c r="L55" s="24"/>
       <c r="M55" s="25"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A56" s="22">
         <v>7</v>
       </c>
@@ -3235,12 +3238,12 @@
       <c r="L56" s="24"/>
       <c r="M56" s="25"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A57" s="22">
         <v>8</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="C57" s="35">
         <v>4</v>
@@ -3258,7 +3261,7 @@
       <c r="L57" s="24"/>
       <c r="M57" s="25"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A58" s="22">
         <v>9</v>
       </c>
@@ -3281,7 +3284,7 @@
       <c r="L58" s="24"/>
       <c r="M58" s="25"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A59" s="22">
         <v>10</v>
       </c>
@@ -3304,7 +3307,7 @@
       <c r="L59" s="24"/>
       <c r="M59" s="25"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A60" s="22">
         <v>11</v>
       </c>
@@ -3327,7 +3330,7 @@
       <c r="L60" s="24"/>
       <c r="M60" s="25"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A61" s="22">
         <v>12</v>
       </c>
@@ -3350,7 +3353,7 @@
       <c r="L61" s="24"/>
       <c r="M61" s="25"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A62" s="22">
         <v>13</v>
       </c>
@@ -3373,7 +3376,7 @@
       <c r="L62" s="24"/>
       <c r="M62" s="25"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A63" s="22">
         <v>14</v>
       </c>
@@ -3396,7 +3399,7 @@
       <c r="L63" s="24"/>
       <c r="M63" s="25"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A64" s="22">
         <v>15</v>
       </c>
@@ -3419,7 +3422,7 @@
       <c r="L64" s="24"/>
       <c r="M64" s="25"/>
     </row>
-    <row r="65" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A65" s="26">
         <v>16</v>
       </c>
@@ -3454,13 +3457,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A22692-FC7B-417F-9C20-2C8A29C87691}">
   <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="15.46484375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="30" t="s">
         <v>95</v>
       </c>
@@ -3485,13 +3491,13 @@
       <c r="H1" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="39" t="s">
         <v>106</v>
       </c>
       <c r="L1" s="36"/>
@@ -3502,7 +3508,7 @@
       <c r="Q1" s="24"/>
       <c r="R1" s="24"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -3546,7 +3552,7 @@
       <c r="Q2" s="24"/>
       <c r="R2" s="24"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" s="22">
         <v>2</v>
       </c>
@@ -3588,7 +3594,7 @@
       <c r="Q3" s="24"/>
       <c r="R3" s="24"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -3630,7 +3636,7 @@
       <c r="Q4" s="24"/>
       <c r="R4" s="24"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="22">
         <v>4</v>
       </c>
@@ -3672,7 +3678,7 @@
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" s="22">
         <v>5</v>
       </c>
@@ -3714,7 +3720,7 @@
       <c r="Q6" s="24"/>
       <c r="R6" s="24"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" s="22">
         <v>6</v>
       </c>
@@ -3756,7 +3762,7 @@
       <c r="Q7" s="24"/>
       <c r="R7" s="24"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" s="22">
         <v>7</v>
       </c>
@@ -3798,7 +3804,7 @@
       <c r="Q8" s="24"/>
       <c r="R8" s="24"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" s="22">
         <v>8</v>
       </c>
@@ -3840,7 +3846,7 @@
       <c r="Q9" s="24"/>
       <c r="R9" s="24"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" s="22">
         <v>9</v>
       </c>
@@ -3882,7 +3888,7 @@
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" s="22">
         <v>10</v>
       </c>
@@ -3924,7 +3930,7 @@
       <c r="Q11" s="24"/>
       <c r="R11" s="24"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" s="22">
         <v>11</v>
       </c>
@@ -3966,7 +3972,7 @@
       <c r="Q12" s="24"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="22">
         <v>12</v>
       </c>
@@ -4008,7 +4014,7 @@
       <c r="Q13" s="24"/>
       <c r="R13" s="24"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" s="22">
         <v>13</v>
       </c>
@@ -4050,7 +4056,7 @@
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" s="22">
         <v>14</v>
       </c>
@@ -4092,7 +4098,7 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" s="22">
         <v>15</v>
       </c>
@@ -4134,7 +4140,7 @@
       <c r="Q16" s="24"/>
       <c r="R16" s="24"/>
     </row>
-    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="26">
         <v>16</v>
       </c>
@@ -4176,7 +4182,7 @@
       <c r="Q17" s="24"/>
       <c r="R17" s="24"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18" s="19">
         <v>1</v>
       </c>
@@ -4211,7 +4217,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19" s="22">
         <v>2</v>
       </c>
@@ -4246,7 +4252,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A20" s="22">
         <v>3</v>
       </c>
@@ -4281,7 +4287,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21" s="22">
         <v>4</v>
       </c>
@@ -4316,7 +4322,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22" s="22">
         <v>5</v>
       </c>
@@ -4351,7 +4357,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A23" s="22">
         <v>6</v>
       </c>
@@ -4386,7 +4392,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A24" s="22">
         <v>7</v>
       </c>
@@ -4421,7 +4427,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A25" s="22">
         <v>8</v>
       </c>
@@ -4456,7 +4462,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A26" s="22">
         <v>9</v>
       </c>
@@ -4491,7 +4497,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A27" s="22">
         <v>10</v>
       </c>
@@ -4526,7 +4532,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A28" s="22">
         <v>11</v>
       </c>
@@ -4561,7 +4567,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A29" s="22">
         <v>12</v>
       </c>
@@ -4596,7 +4602,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A30" s="22">
         <v>13</v>
       </c>
@@ -4631,7 +4637,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A31" s="22">
         <v>14</v>
       </c>
@@ -4666,7 +4672,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A32" s="22">
         <v>15</v>
       </c>
@@ -4701,7 +4707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="26">
         <v>16</v>
       </c>
@@ -4736,7 +4742,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="19">
         <v>1</v>
       </c>
@@ -4771,7 +4777,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" s="22">
         <v>2</v>
       </c>
@@ -4806,7 +4812,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="22">
         <v>3</v>
       </c>
@@ -4841,7 +4847,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="22">
         <v>4</v>
       </c>
@@ -4876,7 +4882,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="22">
         <v>5</v>
       </c>
@@ -4911,7 +4917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" s="22">
         <v>6</v>
       </c>
@@ -4946,7 +4952,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" s="22">
         <v>7</v>
       </c>
@@ -4984,7 +4990,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" s="22">
         <v>8</v>
       </c>
@@ -5019,7 +5025,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" s="22">
         <v>9</v>
       </c>
@@ -5054,7 +5060,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" s="22">
         <v>10</v>
       </c>
@@ -5089,7 +5095,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" s="22">
         <v>11</v>
       </c>
@@ -5124,7 +5130,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45" s="22">
         <v>12</v>
       </c>
@@ -5159,7 +5165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" s="22">
         <v>13</v>
       </c>
@@ -5194,7 +5200,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" s="22">
         <v>14</v>
       </c>
@@ -5229,7 +5235,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48" s="22">
         <v>15</v>
       </c>
@@ -5264,7 +5270,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="26">
         <v>16</v>
       </c>
@@ -5299,7 +5305,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="19">
         <v>1</v>
       </c>
@@ -5334,7 +5340,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="22">
         <v>2</v>
       </c>
@@ -5369,7 +5375,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="22">
         <v>3</v>
       </c>
@@ -5404,7 +5410,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="22">
         <v>4</v>
       </c>
@@ -5439,7 +5445,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="22">
         <v>5</v>
       </c>
@@ -5474,7 +5480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="22">
         <v>6</v>
       </c>
@@ -5509,7 +5515,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="22">
         <v>7</v>
       </c>
@@ -5544,7 +5550,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="22">
         <v>8</v>
       </c>
@@ -5579,7 +5585,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="22">
         <v>9</v>
       </c>
@@ -5614,7 +5620,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="22">
         <v>10</v>
       </c>
@@ -5649,7 +5655,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="22">
         <v>11</v>
       </c>
@@ -5684,7 +5690,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="22">
         <v>12</v>
       </c>
@@ -5719,7 +5725,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="22">
         <v>13</v>
       </c>
@@ -5754,7 +5760,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="22">
         <v>14</v>
       </c>
@@ -5789,7 +5795,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="22">
         <v>15</v>
       </c>
@@ -5824,7 +5830,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A65" s="26">
         <v>16</v>
       </c>
